--- a/data/hotels_by_city/Dallas/Dallas_shard_214.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_214.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="490">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>alblack99</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>was not very clean. Did not look at all like what showed on web site. No coffee maker for room, said they could not afford them. Many TV. channels not working, were roofing the place. I will not stay there again! Also grab and go not 6 to 9. as web site states but 7:30 to 9:30, plus poor selection!!!More</t>
   </si>
   <si>
+    <t>travsworks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r577653359-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>I have stayed at several long term stay motels in dallas area and this place by far blows the rest away. I have never felt unsafe I walk my dog at all hours no issues. Grounds are kept up and those that do cause issues are not around long. Friendly working class of folks. Not the locations fault but there is A fire station ckose those that live in city we use to it. Staff is prompt very friendly and professional. Keesha is on top of any issue Btw I. And Jasmine are great assets to the company both are very knowledgeable as well as friendly and go out of there way to make guest comfortable.More</t>
   </si>
   <si>
+    <t>G2545VZcindyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r572579749-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Terrible stay. There was nothing was up to standard compared to other hotels. The remote control didn't work and they told me there wasn't anything they could do until maint. man got there the next morning. There was no glasses in the room, there were no wash clothes in the room, the fridge didn't keep things cold.More</t>
   </si>
   <si>
+    <t>ananias2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r569969784-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>We were looking for a room that was somewhere between budget and midrange in price, clean, smoke-free, and provided choices to be able to cook or not.  We had one of the studio apartments.  It was small but provided everything that we actually needed.  We were in Dallas for medical reasons and did not want to break our budget with the cost of a room.  The personnel who worked at this site were very courteous and worked hard to meet our needs.  David Batty went out of his way to help us beginning from the selection and cleanliness of our room to the day that we checked out.  This included helping with whatever incidents that may have happened throughout our stay.  The ladies in the office did a great job of supplying us with information, towels, washcloths, and such to make our stay as pleasant as it could be.  I do not have their names with me as I am submitting this review, but I will submit another review to include their names.More</t>
   </si>
   <si>
+    <t>Food_Hotel_Critic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r568738680-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>1st of all it was tiny. One small room with a table,chairs, fridge, stove top. cabinets and what is suppose to be a queen bed. (I don't think so ). I got to my room and was only staying the one night. I called up to front desk and asked where the ice machine was (.The two ice trays in the freezer top were empty. So no ice )  She said they have no ice machine. I said what? are you kidding me? She actually said to me. Ma'am go put water in your ice tray and maybe by morning you will have ice.  I said is housekeeping suppose to fill the trays upon cleaning the room? She said no they are suppose to be empty. Stupidest  thing I have ever heard of . Anyway on with the story My husband and I slept in the bed  barely , I had to get up and turn on the fan noise on my laptop  (Great app) in order to drown out highway noise  though.   So that next morning i  went to clean up and my feet were black!!!  Yes black from the floor. (hardwood or laminate). I tried calling the front desk and the never answered . We left and I will never go back and I do not suggest you go either unless you   like suffering LOL.More</t>
   </si>
   <si>
+    <t>fnua2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r556610918-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>I will never book this extended stay at America. The staff told me that they moved me to sister property even when I already booked it a week ago. Also, the guy at sister property was asking me to pay. Had horrible experience overall.More</t>
   </si>
   <si>
+    <t>amir_atp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r556401243-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>That was the most terrible experience I could ever have. Although I booked my room 48 hours before arriving, had to wait for more than an hour at midnight and make several calls to be accommodated because the hotel didn’t have a clean room available!!!!! The room was too small (the bed was not the size I booked), extremely dirty with very old furniture and huge bugs!!The staff were not helpful and there was no manager or someone who can help with the issues.They didn’t provide anything; no shampoo, lotion and paper towel in bath room. There was several notes saying that come to the front desk if you need mug, pan, spoon and fork or any other appliances but when I asked for mug and even a fresh towel, the lady said we don’t have anything !!!!! There was ironing board in the room but no iron.we stayed there for three nights. When I asked for housekeeper to come and clean the room, surprisingly heard that, housekeepers clean the room once a week!!! I had to take the garbage out myself!!I don't recommend it at all!!! Don’t waste your money.More</t>
   </si>
   <si>
+    <t>REAL G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r553760950-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>I had a good time in dallas with my friends. The cashier showed us great hospitality and was very respectful. Miss Kesha that works in the front lobby was very nice and was really helpful. She made the stay feel more welcomed.More</t>
   </si>
   <si>
+    <t>Carey3131</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r553614177-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -393,6 +420,9 @@
     <t>Thank you so much for such wonderful experience.  Kesha and the rest of the crew are wonderful. Always on top of things.... from Fresh towels to informational direction.Thanks for your hospitality.Big thumbs up.More</t>
   </si>
   <si>
+    <t>Future P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r550707544-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -417,6 +447,9 @@
     <t>The costumer service is amazing, Trina who works 3rd shift, gives the service that can light up the world, ALL READY!!! THANKS EXTENDED STAY FOR YOUR AWESOME FRONT DESK(TRINA)She puts every effort to make sure that my needs were met, i know about this special service cause i worked at Nordsorms for several years, Dnt ever lose this service, build around it!!!-More</t>
   </si>
   <si>
+    <t>42derrick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r547384497-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -444,6 +477,9 @@
     <t>Absolutely love it here. The staff is so great, especially Dashalae, one of the housekeepers. Any service or question I have, she is eager and happy to answer. I have never been so welcomed and pleased at a hotel.  More</t>
   </si>
   <si>
+    <t>cody a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r546872278-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -468,6 +504,9 @@
     <t>The front seat associate Kesha has been extremely helpful and made me feel welcome. Went above and beyond to do so even while being the only one on site and overworked.  I am extremely impressed by the professionalism shown even under pressure More</t>
   </si>
   <si>
+    <t>N4416WBanap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r546024740-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -495,6 +534,9 @@
     <t>Great place to stsy very friendly staff woukd definitely stay again crystal is great manager and Drake as a warm friendly person she was great a my room was clean and very nice thank you so much look foward to staying againMore</t>
   </si>
   <si>
+    <t>Mistah T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r545646543-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -513,6 +555,9 @@
     <t>I stayed at this location for about 3 weeks concurrently during month of November. The property is a great spend as far as scenery and comfort. However, my room wasn’t cleaned for the entire 3 weeks. I began to see roaches(pics available) Every Friday it was “it’s gone have to be next Friday because I’m short staffed” I also had to beg for towels. One front desk clerk turn housekeeper told me “ I got kids n if I give you an extra towel they will take it out of my check “  They went as far as to go into the system and changed my reservation and phone number. They were rude and disrespectful. I’m not sure if I was treated this way because I’m homosexual or they are just that ghetto and rude. I also have recordings of all of these interactions!More</t>
   </si>
   <si>
+    <t>Travis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r544428447-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -537,6 +582,9 @@
     <t>This place is by far the best extented stay in Dallas area. Rooms are clean can actually tell they have been updated upon arrival was very simple check in with a welcoming feeling. The grounds are clean. Rooms as well. Some long-term locations act like they doing you a favor not here all staff is very friendly always available . Manager always ask is everything ok. Kesha is the best she was the main reason I came here and very glad I did now she goes out of her way to make sure your stay is great. You can also talk to when you have a issue. Great place this location is a example of how it should be done.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r543825481-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -561,6 +609,9 @@
     <t>The employees at this hotel were very helpful for our stay. Kesha was especially helpful if it was left up to me she should receive a raise has demonstrated excellent customer service....The staff went above and beyond for us during our stay... I would highly recommend this location to anyone who is looking for a pleasant staff support during your stay... I would definitely come back again....More</t>
   </si>
   <si>
+    <t>shannonsmallwood212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r543017253-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -585,6 +636,9 @@
     <t>My family and I had faced hardship and we needed a place that we could stay until things got better. This hotel was nothing but a blessing for me and my family. The area was clean and well maintained, the service was excellent and Kesha was such a huge help in making our stay comfortable.More</t>
   </si>
   <si>
+    <t>Elijah S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r542734030-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -609,6 +663,9 @@
     <t>Great customer service, the man at front desk helped me plan my nights at extended stay cheapest rates they had to offer online. I️ would definitely come back to this extended stay anytime I️ am in town.More</t>
   </si>
   <si>
+    <t>mechie11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r542235062-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -633,6 +690,9 @@
     <t>Ms. Mosley was very accommedating in my effort to get my mom settled after her bone marrow blood transplant. We have been on a cruel voyge over the last year and it is vary refreshing to run into Angels like your employee Kesha. Thank You Extended Stay and God bless your employee Kesha Mosley..............♥️♥️♥️More</t>
   </si>
   <si>
+    <t>mkmcilwain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r541407670-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -657,6 +717,9 @@
     <t>Front desk staff was very nice and helpful! I can't say that enough. My room smelled a little like smoke but otherwise it was clean and everything was in good condition. It was exactly what I needed for a short business trip.More</t>
   </si>
   <si>
+    <t>psean845</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r541405926-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -672,6 +735,9 @@
     <t>I've been staying here for approximately 4 weeks now. The hotel and surrounding area is clean, safe, and conveniently located near 75. Plenty of food and gas stations nearby. The staff is awesome, providing top quality service. The rooms are newly renovated and meticulously clean. I'm very good at spotting the smallest of imperfections. Linen is not a problem and the free breakfast is a plus. Two particular employees stood out. Kesha and Icell are great at their job and go above and beyond to assist in your needs. This is by far one of the cleanest, friendliest, and safe hotel I've stayed in. This is now my go hotel whenever in need of a place to stay.More</t>
   </si>
   <si>
+    <t>Deon I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r540949820-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -696,6 +762,9 @@
     <t>My family and I are California and we are visiting family here in Dallas tx. The staff of this extended stay was just amazing the staff was great and very helpful. KESHA at the front desk was extremely helpful and kind made sure our stay was a good one as long you have people like Kesha my family and I would always come back thank you!More</t>
   </si>
   <si>
+    <t>jdrea42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r540537748-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -720,6 +789,9 @@
     <t>I am very pleased by my welcoming to the hotel. The front desk clerk shai was friendly and professional. The room is clean and peaceful. My stay here is great. Well recommend this hotel to my friends and family.More</t>
   </si>
   <si>
+    <t>michael w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r540507410-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -735,6 +807,9 @@
     <t>I enjoyed may stay here for 4 months. The manager Crystal made sure My team stay was comfortable and relaxing. The housekeeping was magnificent no  complaints at all. This property is peaceful and safe.More</t>
   </si>
   <si>
+    <t>bookmark240</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r537655409-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -762,6 +837,9 @@
     <t>housekeeper Dashalae Rayson did an awesome job on everything we needed she has a great attitude towards people and shes very detailed with cleanliness. I would definitely recommend her again and will recommend friends and family to visit this place.More</t>
   </si>
   <si>
+    <t>Scott S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r537427299-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -786,6 +864,9 @@
     <t>I hope that the District or Area Manager reads this review! I have enjoyed my stay with Extended Stay America. The manager is Awesome and all the staff with the exception of one is Awesome! Sharidae is the best front desk employee and should not be demoted! Sharidae cares about each every customer that stay here. I do not understand why she was demoted to housekeeping! I would give a 5 star rating but demotion of a good Front Desk person upset me and other customers. However the transfer of the former ASM was AWESOME!!More</t>
   </si>
   <si>
+    <t>LAVETTE R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r536945311-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -810,6 +891,9 @@
     <t>kesha is a very hard worker she help me .to get the best deal  on my room.everytime in come in the office she has a smile on her face.  it a good place to stayi .im going to tell my family and friends this anice place to stay.More</t>
   </si>
   <si>
+    <t>bradhorn111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r533459488-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -819,6 +903,9 @@
     <t>October 16, 2017</t>
   </si>
   <si>
+    <t>jakorip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r531449977-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -843,6 +930,9 @@
     <t>My stay was horrible very unprofessional and lazy workers the room was smelly and nasty I had to make up my own bed the bed had no sheets or anything I had to ask for esstentials that should have already been in the room. They don't clean your room nor give fresh towelsMore</t>
   </si>
   <si>
+    <t>terramadre2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r528833038-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -867,6 +957,9 @@
     <t>I was stuck here because repairs on my home cost more and took much longer than expected and it has been a nightmare. The first inconvenience was buzzing into the lobby to check in. It was 105 degrees outside and the clerk ignored my presence until I started leaning on the buzzer-then she came with major attitude. After checkin, you still cant get to the desk with our buzzing, why not make it accessible with your room key? OK, the worst part is the filthy rooms. My mattress has cigarette burns, mildew-like stains and God only know what else (see pics). I vacuumed the carpet before settling in and the carpet was so dirty I filled the canister 2x! When I cleaned the bathroom &amp; kitchen floors they were dirty and had lots of hairs of past guests. Sooooo gross! The people are mixed bag because the area is sketchy. I saw some  average Joes, but I also saw some drug addicts and a woman who was obviously a prostitute. Does she "work" here? Also, when I tried to do laundry, the washer didn't work so I had to haul everything to a laundrymat.  As a single lady, I don't feel that safe or comfortable here. I would not book here again.More</t>
   </si>
   <si>
+    <t>rosieg75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r510794226-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -894,6 +987,9 @@
     <t>It is an excellent hotel and the hospitality of the front desk was most appreciated. We were recently moving and it helped out that we could check in for an affordable price without any hassle. We would definitely look forward to coming back if we move again and need a place for a few days.More</t>
   </si>
   <si>
+    <t>63annamarieb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r506526315-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1014,9 @@
     <t>Rooms too small to change your mind, no hair dryer, no kleenex, no spare roll of toilet paper, 2 towels, lights and outlets not working, terrible tv options.  Drug deals or prostitution occurring in parking lot all night as truck pulls up and beeps horn every 45 minutes for someone to go out to meet them.More</t>
   </si>
   <si>
+    <t>Keith T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r498868784-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1044,9 @@
     <t>Never again will I stay at an Extended Stay America. I had a reservation for a check in in Dallas on June 30th and was planning on staying a couple weeks. The room was terrible, The A/C was set to 60 and kept cutting off when it was nowhere near 60 and I was sweating standing in there. The kitchen floor was sticky and my shoes stuck to it. The bathroom was like a sauna. It was nowhere near what was described to me on the phone when booking or portrayed by the photos I seen on the web. I also did not have all of what I was promised on the phone. I travel as an adjuster and work for a company that has a corp account with them. I WILL NEVER MAKE THIS MISTAKE AGAIN. Thank goodness I was refunded my entire amount. I checked out went up the road about 7 miles and found a clean, comfortable room with all the amenities and was able to get on with my work. I have never had such horrible treatment or with  issues anywhere I have ever stayed before. It was as I if I were on another planet. Everyone on the phone kept apologizing but I was getting no action at the time it was needed. I hope you take this complaint to fix the problems in your company.More</t>
   </si>
   <si>
+    <t>Ttttttt25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r498392042-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1071,9 @@
     <t>Good vibrations, good energy, good staff, friendly, caring, safe. Good coffee. Hot chocolate. Yummy breakfast. Pretty peaceful picnic views and landscapes. Professional. Quality. Would recommend to people if you would like to feel more at home while visiting. :)More</t>
   </si>
   <si>
+    <t>Gorgeous G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r498027508-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1098,9 @@
     <t>I appreciate the hospitality here. Everyone is friendly and quick to help me with any request. It's very quiet, comfortable and clean. I feel at home here. The location is great, as well. There are many stores and restaurants nearby. Thank you for making my stay pleasurable. More</t>
   </si>
   <si>
+    <t>tturner44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r497161254-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1125,9 @@
     <t>Stayed here while in between apartments. Overall great experience. Friendly amazing staff. Breakfast. Rooms nice and fresh. Clean. Sometimes lower room floors have ants maybe one two or three here and there. But who or what is actually perfect? Recommend stay. :) More</t>
   </si>
   <si>
+    <t>626latashaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r493387412-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1152,9 @@
     <t>The room is not worth the price. The toilet plumbing was very bad. The room odor was not what i was expecting. The staff at the front desk is not as polite as they should be. Waiting u will do until someone opens the door for u to check-in.More</t>
   </si>
   <si>
+    <t>390jahans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r493165862-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1173,9 @@
     <t>This place is a waste of money do not stay here the night staff is especially rude. Asked for extra towels and was told she doesn't like people coming in after 11pm. That's the time I get off... I asked for some pans to cook and she slapped them on the table. This place is located across the street from a police station. Heat ready to hear sirens all night. I would not recommend this location to anyone. They have better locations to choose from. Pick any other place but here....More</t>
   </si>
   <si>
+    <t>Judy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r492579264-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1200,9 @@
     <t>The beds didnt have any pillow shams and it seemed as if the queens were full sized beds. I only stayed 1 night but if longer i would've been really mad about the bed size and the pillow..  The staff was friendly and knowledgeable  about promotionsMore</t>
   </si>
   <si>
+    <t>Brian N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r487747317-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1110,6 +1230,9 @@
     <t>Great area to be in great staff and all around great stay for me the front desk is very helpful finding good restaurants and shopping areas around dallas they also are pet friendly best extended stay I've stayed at in texasMore</t>
   </si>
   <si>
+    <t>eugunevester372</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r483195641-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1255,9 @@
   </si>
   <si>
     <t>I have enjoyed my stay. the staff has always good to me and has always been helpfull and courteous. David Batty, Shardae Williams, David Turner have always been great. I  love this staff and they all deserve rewards in my opinionMore</t>
+  </si>
+  <si>
+    <t>JAY M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r479339590-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
@@ -1171,6 +1297,9 @@
 This is where the check in nightmare started. Our flight, the earlier evening, got canceled due to a mechanical problem and we were rebooked on a next day morning flight. So we called up...We were in Dallas to attend a wedding and booked this since it was closest to the wedding location. However, very bad experience and I wished we had booked some other one (we have a very good experience with ESA Lewisville) even if it meant few more minutes of travel. To begin with, just as we entered the reception area, we couldn't help to notice that it wasn't cleaned for long. Also, there was coffee spilled over the breakfast table and the floor near the table. Overall, based on what we saw in the room as well - very low cleanliness standards. Rooms: Very small. I feel the old Extended Stays had a different outer layout as well as room design and this one is one of them. The bathroom door was punched really hard I suppose which left its impression. The bathroom had a major issue with drains clogged for both, wash basin and bath tub. So, the water was receding very slowly. However, apart from that, bathroom had all the amenities required. We didn't use the kitchen during our stay, so can't review that. The bed was well maintained and the rest of the stuff like iron, TV etc were in good condition. Staff: This is where the check in nightmare started. Our flight, the earlier evening, got canceled due to a mechanical problem and we were rebooked on a next day morning flight. So we called up that night at the reception to keep our reservation intact since we were going to check in next day noon. With verbal confirmation, I assumed we were good. However, when we reached the next day, the lady at the reception said our booking was canceled due to no-show. When I asked her about my conversation, she asked me to whom did I speak. To be honest, I didn't ask the name but still, it shouldn't matter since I got confirmation from the reception desk about my reservation being intact. However, the lady stubbornly kept insisting that since we didn't inform, our reservation was canceled and asked us to wait for 30mins since, luckily, they had a room available. In general, the staff was very rude and behaved as if they're doing a favor by accommodating us. With just one night stay, we didn't bother. However, their internal, as well as customer communication, needs significant improvement. Location: Well, we opted for this hotel because of the location. Quite good and right on the main road. Their main entrance is quite tricky since the bushes along the footpath kind of blocks the visibility of the lobby. On all occasions, the cab drivers missed the...More</t>
   </si>
   <si>
+    <t>omi o</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r471090135-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1327,9 @@
     <t>rooms are very clean they have lots of space inside like it nice view I booked on hotels.com i check before 3 pm and staff was so nice the girls are sonice and friendly they ask me for 100 deposit and thats it nothing bad to say about the services im very confortable and i will come back againMore</t>
   </si>
   <si>
+    <t>April R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r459801927-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1214,6 +1346,9 @@
   </si>
   <si>
     <t>February 2017</t>
+  </si>
+  <si>
+    <t>Monica M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r456544510-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
@@ -1244,6 +1379,9 @@
 Woke up for the breakfast on the go that they include with your stay. Only to wake up to HOT WATER AND SOME STALE OLD GRANOLA BARS!! tHE WOMEN THAT BUZZED ME INTO THE OFFICE, yea they keep the hotel lobby locked 24/7. That should have been a red flag right there keeping...Booked thru website in advance. Been an Extended stay customer since 2010.Check in time is at 3pm. My room wasn't ready until almost 4pm. The reason for not being able to check in at 3 o'clock was because they were cleaning my room. My room was dirty there was spots and water stains all on the mirror in the bathroom the floors were filthy. The bedspread in the blankets for full of hair thank God I travel with my own Linens. That room was not cleaned it looks like somebody just walk through it and maybe emptied out of trash can but it was dirty I had to clean it. Paid a refundable $100.00 deposite. Which by the way I have traveled all over the united states with a therapy dog and have ALWAYS been entitled to my deposit back.The deluxe​ room I stayed in was average, the comfort of the bed was not so good.WiFI was horriable couldn't get it. Men and other people were hanging around all hours of the night drinking in the parking lot. I didnt feel safe at all.Woke up for the breakfast on the go that they include with your stay. Only to wake up to HOT WATER AND SOME STALE OLD GRANOLA BARS!! tHE WOMEN THAT BUZZED ME INTO THE OFFICE, yea they keep the hotel lobby locked 24/7. That should have been a red flag right there keeping the hotel lobby locked 24 hours .Not very welcoming. The lady that buzz me in commented on how there hasn't been any breakfast for the guests for days and that her manger was on the way with breakfast. NEVER HAPPENEDUPON CHECK OUT AN EMPLOYEE CAME TO INSPECT MY ROOM FOR Damages. W hich I wasn't worried at all, considering I didn't do any damages. While waiting 4 the employee to inspect my room I was outside smoking a cigarette that's where we're supposed to smoke since we're not allowed to smoke inside our rooms. The employee came out of my room and said that we were waiting on the manager to come back and inspect my room like I said I wasn't worried because I hadn't done any damages to the room nor did I smoke in the room. Marissa the day manager wasn't very nice at all she was very unpleasant and unprofessional walked into the room and turned around and walked out and said you're not getting your deposit back you smoked in the room. I told her I did not smoke in the room what it happened was I was smoking outside she walked up and saw me smoking and assumed that I smoked in the room so they can keep my hundred dollars. After several minutes of insisting to this woman that I'm entitled to my hundred dollar deposit back she told me...More</t>
   </si>
   <si>
+    <t>Taylor F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r453875481-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1403,9 @@
     <t>NOTHING GOOD ABOUT THIS PLACE!!! I had the hardest time getting the cleaning staff to finally come clean my room for the first time after two weeks. The heater is broken, the fridge doesn't keep anything fresh (so all my food spoils), and the front burner is broken. Today, I went to make another payment for my stay (I'm part of the Extended Plus Program, so I get a really good deal), and the man at the desk tried to bump up my rate by $10 every night!! Unacceptable... I had a pre-arranged rate before coming here, and they cannot change the rate. I called Extended Stay America to complain, and now I have to wait 24 hours for them to review the problem and come up with a solution...What is there to review? My pre-arranged rate is the rate it should be! There's nothing to review. Just give me what you told me you were going to give me! So furious and pissed...More</t>
   </si>
   <si>
+    <t>netboo43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r450852033-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1283,6 +1424,9 @@
     <t>Stay far away booked my room for January 2nd to 10th had a good stay until Sunday jan 8th and my world was turned upside down i book this hotel because i was waiting for my apartment to be finish and it was close to work and had a kitchen and frig so i can cook and still have that home like feel. So on sunday went to work when i came home my room was trashed and everything was stolen even my underwear im mean really. They took my purse check books food all my boxes to my new place jewelry all my cloths lap tops dvd players im mean everything i know it was housekeeping but of course they are definding there staff there was no force entry so they had to use a key she even took my my tampons lol i will never stay at hotel ever and i truly advise to do the same if you value your things i read the reviews and still came anyway i wish i would have listen its not the guest its the workers bewareMore</t>
   </si>
   <si>
+    <t>only1elvis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r439256467-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1304,6 +1448,9 @@
     <t>I came via a cab from the airport. I wanted to check-in but they had to go tour the property before letting me check-in. At first I thought it wasn't a big deal. Asked to use the bathroom which the black lady behind the counter told me they didn't have a public restroom. She then informed that I could walk the 1/2 mile to the corner store down the street. I made my way out and down the street. The redhead that was smoking out back of the office was also very rude and unhelpful. I hoofed it to the corner store and back. 38 minutes and now there was a group of us waiting.  I need to iron a shirt and the iron that was in the room did not work. I called to the office and was informed that they were unable to provide me with a replacement. The following morning I took it to the office and the rude redhead was unsure if they had any extra.She finally looked in one spot a produced an iron.  What kind of hotel did I choose that no one seems to care about me having a good experience?More</t>
   </si>
   <si>
+    <t>Optimistic_Otto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r410699612-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1476,9 @@
   </si>
   <si>
     <t>We stayed in an ADA room with a kitchenette and roll in shower.  there was a 3/4 inch gap under the door to the room and even though there was a kitchenette, there was no table to sit at to eat.  There was only one chair to sit on, and one of the two bedside stands did not have a drawer.  Residents come and go at all hours - - - with the honking of remote lock horns from automobiles and sirens several times a night from the firehouse on the other side of Coit Road from the motel, we did not get one good nights sleep during our entire stay.  Housekeeping was spotty, showing up one week and not the next and when they did show up they stripped the towels from the room and left no replacements.  The desk clerks were responsive to our needs and brought a coffee pot the first day because there was none in the room and brought towels when they were missing.  You Get What You Pay For!More</t>
+  </si>
+  <si>
+    <t>glorilugo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r403379402-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
@@ -1860,43 +2010,47 @@
       <c r="A2" t="n">
         <v>31354</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1910,56 +2064,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31354</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136010</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1971,56 +2129,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31354</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136011</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2042,56 +2204,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31354</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136012</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2109,56 +2275,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31354</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136013</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2176,56 +2346,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31354</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136014</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -2247,56 +2421,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31354</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136015</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2312,56 +2490,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31354</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136016</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2373,56 +2555,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31354</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2434,56 +2620,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31354</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136018</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2495,56 +2685,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31354</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136019</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2556,56 +2750,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31354</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136020</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2617,56 +2815,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31354</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136021</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2688,56 +2890,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31354</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136022</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2749,56 +2955,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X15" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31354</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>30472</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2810,56 +3020,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31354</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2871,56 +3085,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31354</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136023</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2936,56 +3154,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31354</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136024</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2997,56 +3219,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="X19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31354</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136025</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3058,56 +3284,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31354</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136026</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3123,56 +3353,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31354</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136027</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3184,56 +3418,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X22" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31354</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136028</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3245,56 +3483,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="X23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31354</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136029</v>
+      </c>
+      <c r="C24" t="s">
+        <v>248</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3306,56 +3548,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="X24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="Y24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31354</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>7361</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O25" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3367,56 +3613,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="X25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31354</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136030</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3434,56 +3684,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="X26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="Y26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31354</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>6881</v>
+      </c>
+      <c r="C27" t="s">
+        <v>273</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O27" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3495,56 +3749,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31354</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136031</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3562,41 +3820,45 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="X28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="Y28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31354</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136032</v>
+      </c>
+      <c r="C29" t="s">
+        <v>291</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -3612,51 +3874,52 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>31354</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136033</v>
+      </c>
+      <c r="C30" t="s">
+        <v>295</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="J30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3678,56 +3941,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="X30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="Y30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>31354</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136034</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="J31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3745,56 +4012,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="X31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="Y31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31354</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136035</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="O32" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3816,56 +4087,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="X32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="Y32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31354</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136036</v>
+      </c>
+      <c r="C33" t="s">
+        <v>323</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="O33" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3887,56 +4162,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="X33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31354</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>35990</v>
+      </c>
+      <c r="C34" t="s">
+        <v>332</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="J34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="K34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="L34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3954,56 +4233,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="X34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="Y34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>31354</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136037</v>
+      </c>
+      <c r="C35" t="s">
+        <v>342</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4025,56 +4308,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="X35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="Y35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>31354</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136038</v>
+      </c>
+      <c r="C36" t="s">
+        <v>351</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="J36" t="s">
+        <v>354</v>
+      </c>
+      <c r="K36" t="s">
+        <v>355</v>
+      </c>
+      <c r="L36" t="s">
+        <v>356</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
         <v>319</v>
       </c>
-      <c r="K36" t="s">
-        <v>320</v>
-      </c>
-      <c r="L36" t="s">
-        <v>321</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>288</v>
-      </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4096,56 +4383,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="X36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="Y36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>31354</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136039</v>
+      </c>
+      <c r="C37" t="s">
+        <v>360</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="J37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="K37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="L37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4167,56 +4458,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="X37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="Y37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>31354</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136040</v>
+      </c>
+      <c r="C38" t="s">
+        <v>369</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="J38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="K38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="L38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -4238,56 +4533,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="X38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="Y38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>31354</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136041</v>
+      </c>
+      <c r="C39" t="s">
+        <v>378</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="J39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="K39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="L39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O39" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -4309,56 +4608,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="X39" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="Y39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31354</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>16829</v>
+      </c>
+      <c r="C40" t="s">
+        <v>385</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="J40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -4380,56 +4683,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="X40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="Y40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>31354</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>136042</v>
+      </c>
+      <c r="C41" t="s">
+        <v>394</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="J41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="K41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="L41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4441,56 +4748,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="X41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="Y41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>31354</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136043</v>
+      </c>
+      <c r="C42" t="s">
+        <v>404</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="J42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="K42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="L42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4508,56 +4819,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="X42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="Y42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>31354</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136044</v>
+      </c>
+      <c r="C43" t="s">
+        <v>413</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="J43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="K43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="L43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4575,56 +4890,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="X43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="Y43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31354</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136045</v>
+      </c>
+      <c r="C44" t="s">
+        <v>423</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="J44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="K44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="L44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -4640,56 +4959,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="X44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="Y44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>31354</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136046</v>
+      </c>
+      <c r="C45" t="s">
+        <v>433</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="J45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="K45" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="L45" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="O45" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4703,50 +5026,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>31354</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>15596</v>
+      </c>
+      <c r="C46" t="s">
+        <v>440</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="J46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="K46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="L46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4760,50 +5087,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>31354</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>104999</v>
+      </c>
+      <c r="C47" t="s">
+        <v>447</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="J47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="K47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="L47" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4821,50 +5152,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>31354</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136047</v>
+      </c>
+      <c r="C48" t="s">
+        <v>455</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="J48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="K48" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4878,50 +5213,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>31354</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>136048</v>
+      </c>
+      <c r="C49" t="s">
+        <v>462</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="J49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="K49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="L49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4935,50 +5274,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>31354</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>136049</v>
+      </c>
+      <c r="C50" t="s">
+        <v>470</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="J50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="K50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="L50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="O50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -4994,56 +5337,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="X50" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="Y50" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>31354</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>136050</v>
+      </c>
+      <c r="C51" t="s">
+        <v>480</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="K51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="L51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5059,13 +5406,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="X51" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="Y51" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_214.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_214.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="470">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,99 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>alblack99</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r595197561-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>217717</t>
+  </si>
+  <si>
+    <t>595197561</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Horrible customer service</t>
+  </si>
+  <si>
+    <t>When I arrived at the hotel to check in. The front desk was empty and there was nothing but crickets chirping and other customers coming in and saying “still no one here” after waiting for 15 minuets I finally got checked in. Since I had to leave before the front desk opened at 0700 I called a couple of days later to get my receipt and it was not sent. Needless to say after multiple attempts and two weeks later I still don't I have it. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Coit Road, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
+  </si>
+  <si>
+    <t>When I arrived at the hotel to check in. The front desk was empty and there was nothing but crickets chirping and other customers coming in and saying “still no one here” after waiting for 15 minuets I finally got checked in. Since I had to leave before the front desk opened at 0700 I called a couple of days later to get my receipt and it was not sent. Needless to say after multiple attempts and two weeks later I still don't I have it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r590994898-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>590994898</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>COURTEOUS, CLEAN, CHEAP!</t>
+  </si>
+  <si>
+    <t>Ms. K___A, Assistant Manager, greets you with a smile before her words ever do.  When I met her, Ms. K was helping the only housekeeper, who showed up for work, over the holiday weekend, clean rooms.  Md. K is an energetic fireball, who is firm, but fair.  She tries to make things right for everyone , even the 'nasties,' who are disrespectful. The room was clean through and through.  There was no dust, clean linen, clean floors, clean shelves, no bugs, no bugs, no bugs!!  Definitely, I give a +10 for excellence, in this area.  The space had been renovated.  There was a bedroom area, a kitchenette area.  The furniture was lovely, and fairly new, even though it was too large for the space. However, on the down side, everyday the cable went out for a while, a few minutes to over an hour.  I was able to get a really cheap price, 60% off the daily published rate for the time I was there, by being persistent in shopping for a bargain.  Without that deeply discounted price, I would not have chosen this hotel. I will not return for several reasons: 1) an awful location, 2) too much street noise, 3) the room was too small, 4) breakfast was really a snack.  On the up side, there are people who live there long term, thus, they must find this hotel agreeable to their taste!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Coit Road, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Ms. K___A, Assistant Manager, greets you with a smile before her words ever do.  When I met her, Ms. K was helping the only housekeeper, who showed up for work, over the holiday weekend, clean rooms.  Md. K is an energetic fireball, who is firm, but fair.  She tries to make things right for everyone , even the 'nasties,' who are disrespectful. The room was clean through and through.  There was no dust, clean linen, clean floors, clean shelves, no bugs, no bugs, no bugs!!  Definitely, I give a +10 for excellence, in this area.  The space had been renovated.  There was a bedroom area, a kitchenette area.  The furniture was lovely, and fairly new, even though it was too large for the space. However, on the down side, everyday the cable went out for a while, a few minutes to over an hour.  I was able to get a really cheap price, 60% off the daily published rate for the time I was there, by being persistent in shopping for a bargain.  Without that deeply discounted price, I would not have chosen this hotel. I will not return for several reasons: 1) an awful location, 2) too much street noise, 3) the room was too small, 4) breakfast was really a snack.  On the up side, there are people who live there long term, thus, they must find this hotel agreeable to their taste!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r585868843-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>585868843</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Roach motel</t>
+  </si>
+  <si>
+    <t>If you like roaches, stay here! Was due to stay for the week in business, but only lasted one night and that was one night too long! At first when you walk in the stench hits you. Smells like a 1980’s carpeted locker room!  Hair on every surface! Counters, bathtub, toilet. Wouldn’t even think of trying to store food or cook due to the roaches!  This establishment should be ashamed of themselves for putting anyone in a room like this! Get an exterminator and a new housekeeper!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Coit Road, responded to this reviewResponded June 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2018</t>
+  </si>
+  <si>
+    <t>If you like roaches, stay here! Was due to stay for the week in business, but only lasted one night and that was one night too long! At first when you walk in the stench hits you. Smells like a 1980’s carpeted locker room!  Hair on every surface! Counters, bathtub, toilet. Wouldn’t even think of trying to store food or cook due to the roaches!  This establishment should be ashamed of themselves for putting anyone in a room like this! Get an exterminator and a new housekeeper!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r582220469-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>217717</t>
-  </si>
-  <si>
     <t>582220469</t>
   </si>
   <si>
@@ -174,24 +252,18 @@
     <t>was not very clean. Did not look at all like what showed on web site. No coffee maker for room, said they could not afford them. Many TV. channels not working, were roofing the place. I will not stay there again! Also grab and go not 6 to 9. as web site states but 7:30 to 9:30, plus poor selection!!!MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Coit Road, responded to this reviewResponded 6 days ago</t>
-  </si>
-  <si>
-    <t>Responded 6 days ago</t>
+    <t>00esa, Manager at Extended Stay America - Dallas - Coit Road, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
   </si>
   <si>
     <t>was not very clean. Did not look at all like what showed on web site. No coffee maker for room, said they could not afford them. Many TV. channels not working, were roofing the place. I will not stay there again! Also grab and go not 6 to 9. as web site states but 7:30 to 9:30, plus poor selection!!!More</t>
   </si>
   <si>
-    <t>travsworks</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r577653359-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -210,18 +282,15 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Coit Road, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>00esa, Manager at Extended Stay America - Dallas - Coit Road, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
   </si>
   <si>
     <t>I have stayed at several long term stay motels in dallas area and this place by far blows the rest away. I have never felt unsafe I walk my dog at all hours no issues. Grounds are kept up and those that do cause issues are not around long. Friendly working class of folks. Not the locations fault but there is A fire station ckose those that live in city we use to it. Staff is prompt very friendly and professional. Keesha is on top of any issue Btw I. And Jasmine are great assets to the company both are very knowledgeable as well as friendly and go out of there way to make guest comfortable.More</t>
   </si>
   <si>
-    <t>G2545VZcindyc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r572579749-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -249,9 +318,6 @@
     <t>Terrible stay. There was nothing was up to standard compared to other hotels. The remote control didn't work and they told me there wasn't anything they could do until maint. man got there the next morning. There was no glasses in the room, there were no wash clothes in the room, the fridge didn't keep things cold.More</t>
   </si>
   <si>
-    <t>ananias2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r569969784-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -282,9 +348,6 @@
     <t>We were looking for a room that was somewhere between budget and midrange in price, clean, smoke-free, and provided choices to be able to cook or not.  We had one of the studio apartments.  It was small but provided everything that we actually needed.  We were in Dallas for medical reasons and did not want to break our budget with the cost of a room.  The personnel who worked at this site were very courteous and worked hard to meet our needs.  David Batty went out of his way to help us beginning from the selection and cleanliness of our room to the day that we checked out.  This included helping with whatever incidents that may have happened throughout our stay.  The ladies in the office did a great job of supplying us with information, towels, washcloths, and such to make our stay as pleasant as it could be.  I do not have their names with me as I am submitting this review, but I will submit another review to include their names.More</t>
   </si>
   <si>
-    <t>Food_Hotel_Critic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r568738680-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -312,9 +375,6 @@
     <t>1st of all it was tiny. One small room with a table,chairs, fridge, stove top. cabinets and what is suppose to be a queen bed. (I don't think so ). I got to my room and was only staying the one night. I called up to front desk and asked where the ice machine was (.The two ice trays in the freezer top were empty. So no ice )  She said they have no ice machine. I said what? are you kidding me? She actually said to me. Ma'am go put water in your ice tray and maybe by morning you will have ice.  I said is housekeeping suppose to fill the trays upon cleaning the room? She said no they are suppose to be empty. Stupidest  thing I have ever heard of . Anyway on with the story My husband and I slept in the bed  barely , I had to get up and turn on the fan noise on my laptop  (Great app) in order to drown out highway noise  though.   So that next morning i  went to clean up and my feet were black!!!  Yes black from the floor. (hardwood or laminate). I tried calling the front desk and the never answered . We left and I will never go back and I do not suggest you go either unless you   like suffering LOL.More</t>
   </si>
   <si>
-    <t>fnua2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r556610918-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -330,9 +390,6 @@
     <t>I will never book this extended stay at America. The staff told me that they moved me to sister property even when I already booked it a week ago. Also, the guy at sister property was asking me to pay. Had horrible experience overall.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Coit Road, responded to this reviewResponded January 27, 2018</t>
   </si>
   <si>
@@ -342,9 +399,6 @@
     <t>I will never book this extended stay at America. The staff told me that they moved me to sister property even when I already booked it a week ago. Also, the guy at sister property was asking me to pay. Had horrible experience overall.More</t>
   </si>
   <si>
-    <t>amir_atp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r556401243-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -369,9 +423,6 @@
     <t>That was the most terrible experience I could ever have. Although I booked my room 48 hours before arriving, had to wait for more than an hour at midnight and make several calls to be accommodated because the hotel didn’t have a clean room available!!!!! The room was too small (the bed was not the size I booked), extremely dirty with very old furniture and huge bugs!!The staff were not helpful and there was no manager or someone who can help with the issues.They didn’t provide anything; no shampoo, lotion and paper towel in bath room. There was several notes saying that come to the front desk if you need mug, pan, spoon and fork or any other appliances but when I asked for mug and even a fresh towel, the lady said we don’t have anything !!!!! There was ironing board in the room but no iron.we stayed there for three nights. When I asked for housekeeper to come and clean the room, surprisingly heard that, housekeepers clean the room once a week!!! I had to take the garbage out myself!!I don't recommend it at all!!! Don’t waste your money.More</t>
   </si>
   <si>
-    <t>REAL G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r553760950-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -399,9 +450,6 @@
     <t>I had a good time in dallas with my friends. The cashier showed us great hospitality and was very respectful. Miss Kesha that works in the front lobby was very nice and was really helpful. She made the stay feel more welcomed.More</t>
   </si>
   <si>
-    <t>Carey3131</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r553614177-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -420,9 +468,6 @@
     <t>Thank you so much for such wonderful experience.  Kesha and the rest of the crew are wonderful. Always on top of things.... from Fresh towels to informational direction.Thanks for your hospitality.Big thumbs up.More</t>
   </si>
   <si>
-    <t>Future P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r550707544-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -447,9 +492,6 @@
     <t>The costumer service is amazing, Trina who works 3rd shift, gives the service that can light up the world, ALL READY!!! THANKS EXTENDED STAY FOR YOUR AWESOME FRONT DESK(TRINA)She puts every effort to make sure that my needs were met, i know about this special service cause i worked at Nordsorms for several years, Dnt ever lose this service, build around it!!!-More</t>
   </si>
   <si>
-    <t>42derrick</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r547384497-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -477,9 +519,6 @@
     <t>Absolutely love it here. The staff is so great, especially Dashalae, one of the housekeepers. Any service or question I have, she is eager and happy to answer. I have never been so welcomed and pleased at a hotel.  More</t>
   </si>
   <si>
-    <t>cody a</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r546872278-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,9 +543,6 @@
     <t>The front seat associate Kesha has been extremely helpful and made me feel welcome. Went above and beyond to do so even while being the only one on site and overworked.  I am extremely impressed by the professionalism shown even under pressure More</t>
   </si>
   <si>
-    <t>N4416WBanap</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r546024740-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -534,9 +570,6 @@
     <t>Great place to stsy very friendly staff woukd definitely stay again crystal is great manager and Drake as a warm friendly person she was great a my room was clean and very nice thank you so much look foward to staying againMore</t>
   </si>
   <si>
-    <t>Mistah T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r545646543-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -555,9 +588,6 @@
     <t>I stayed at this location for about 3 weeks concurrently during month of November. The property is a great spend as far as scenery and comfort. However, my room wasn’t cleaned for the entire 3 weeks. I began to see roaches(pics available) Every Friday it was “it’s gone have to be next Friday because I’m short staffed” I also had to beg for towels. One front desk clerk turn housekeeper told me “ I got kids n if I give you an extra towel they will take it out of my check “  They went as far as to go into the system and changed my reservation and phone number. They were rude and disrespectful. I’m not sure if I was treated this way because I’m homosexual or they are just that ghetto and rude. I also have recordings of all of these interactions!More</t>
   </si>
   <si>
-    <t>Travis S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r544428447-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -582,9 +612,6 @@
     <t>This place is by far the best extented stay in Dallas area. Rooms are clean can actually tell they have been updated upon arrival was very simple check in with a welcoming feeling. The grounds are clean. Rooms as well. Some long-term locations act like they doing you a favor not here all staff is very friendly always available . Manager always ask is everything ok. Kesha is the best she was the main reason I came here and very glad I did now she goes out of her way to make sure your stay is great. You can also talk to when you have a issue. Great place this location is a example of how it should be done.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r543825481-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -609,9 +636,6 @@
     <t>The employees at this hotel were very helpful for our stay. Kesha was especially helpful if it was left up to me she should receive a raise has demonstrated excellent customer service....The staff went above and beyond for us during our stay... I would highly recommend this location to anyone who is looking for a pleasant staff support during your stay... I would definitely come back again....More</t>
   </si>
   <si>
-    <t>shannonsmallwood212</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r543017253-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -636,9 +660,6 @@
     <t>My family and I had faced hardship and we needed a place that we could stay until things got better. This hotel was nothing but a blessing for me and my family. The area was clean and well maintained, the service was excellent and Kesha was such a huge help in making our stay comfortable.More</t>
   </si>
   <si>
-    <t>Elijah S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r542734030-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -663,9 +684,6 @@
     <t>Great customer service, the man at front desk helped me plan my nights at extended stay cheapest rates they had to offer online. I️ would definitely come back to this extended stay anytime I️ am in town.More</t>
   </si>
   <si>
-    <t>mechie11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r542235062-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -678,7 +696,7 @@
     <t>Kesha Mosley</t>
   </si>
   <si>
-    <t>Ms. Mosley was very accommedating in my effort to get my mom settled after her bone marrow blood transplant. We have been on a cruel voyge over the last year and it is vary refreshing to run into Angels like your employee Kesha. Thank You Extended Stay and God bless your employee Kesha Mosley..............♥️♥️♥️MoreShow less</t>
+    <t>Ms. Mosley was very accommedating in my effort to get my mom settled after her bone marrow blood transplant. We have been on a cruel voyge over the last year and it is vary refreshing to run into Angels like your employee Kesha. Thank You Extended Stay and God bless your employee Kesha Mosley..............️️️MoreShow less</t>
   </si>
   <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Coit Road, responded to this reviewResponded November 22, 2017</t>
@@ -687,10 +705,7 @@
     <t>Responded November 22, 2017</t>
   </si>
   <si>
-    <t>Ms. Mosley was very accommedating in my effort to get my mom settled after her bone marrow blood transplant. We have been on a cruel voyge over the last year and it is vary refreshing to run into Angels like your employee Kesha. Thank You Extended Stay and God bless your employee Kesha Mosley..............♥️♥️♥️More</t>
-  </si>
-  <si>
-    <t>mkmcilwain</t>
+    <t>Ms. Mosley was very accommedating in my effort to get my mom settled after her bone marrow blood transplant. We have been on a cruel voyge over the last year and it is vary refreshing to run into Angels like your employee Kesha. Thank You Extended Stay and God bless your employee Kesha Mosley..............️️️More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r541407670-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
@@ -717,9 +732,6 @@
     <t>Front desk staff was very nice and helpful! I can't say that enough. My room smelled a little like smoke but otherwise it was clean and everything was in good condition. It was exactly what I needed for a short business trip.More</t>
   </si>
   <si>
-    <t>psean845</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r541405926-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -735,9 +747,6 @@
     <t>I've been staying here for approximately 4 weeks now. The hotel and surrounding area is clean, safe, and conveniently located near 75. Plenty of food and gas stations nearby. The staff is awesome, providing top quality service. The rooms are newly renovated and meticulously clean. I'm very good at spotting the smallest of imperfections. Linen is not a problem and the free breakfast is a plus. Two particular employees stood out. Kesha and Icell are great at their job and go above and beyond to assist in your needs. This is by far one of the cleanest, friendliest, and safe hotel I've stayed in. This is now my go hotel whenever in need of a place to stay.More</t>
   </si>
   <si>
-    <t>Deon I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r540949820-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -762,9 +771,6 @@
     <t>My family and I are California and we are visiting family here in Dallas tx. The staff of this extended stay was just amazing the staff was great and very helpful. KESHA at the front desk was extremely helpful and kind made sure our stay was a good one as long you have people like Kesha my family and I would always come back thank you!More</t>
   </si>
   <si>
-    <t>jdrea42</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r540537748-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -789,9 +795,6 @@
     <t>I am very pleased by my welcoming to the hotel. The front desk clerk shai was friendly and professional. The room is clean and peaceful. My stay here is great. Well recommend this hotel to my friends and family.More</t>
   </si>
   <si>
-    <t>michael w</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r540507410-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -807,9 +810,6 @@
     <t>I enjoyed may stay here for 4 months. The manager Crystal made sure My team stay was comfortable and relaxing. The housekeeping was magnificent no  complaints at all. This property is peaceful and safe.More</t>
   </si>
   <si>
-    <t>bookmark240</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r537655409-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -837,9 +837,6 @@
     <t>housekeeper Dashalae Rayson did an awesome job on everything we needed she has a great attitude towards people and shes very detailed with cleanliness. I would definitely recommend her again and will recommend friends and family to visit this place.More</t>
   </si>
   <si>
-    <t>Scott S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r537427299-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -864,9 +861,6 @@
     <t>I hope that the District or Area Manager reads this review! I have enjoyed my stay with Extended Stay America. The manager is Awesome and all the staff with the exception of one is Awesome! Sharidae is the best front desk employee and should not be demoted! Sharidae cares about each every customer that stay here. I do not understand why she was demoted to housekeeping! I would give a 5 star rating but demotion of a good Front Desk person upset me and other customers. However the transfer of the former ASM was AWESOME!!More</t>
   </si>
   <si>
-    <t>LAVETTE R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r536945311-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -891,19 +885,28 @@
     <t>kesha is a very hard worker she help me .to get the best deal  on my room.everytime in come in the office she has a smile on her face.  it a good place to stayi .im going to tell my family and friends this anice place to stay.More</t>
   </si>
   <si>
-    <t>bradhorn111</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r533459488-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
     <t>533459488</t>
   </si>
   <si>
-    <t>October 16, 2017</t>
-  </si>
-  <si>
-    <t>jakorip</t>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>PEST INFESTATION!!</t>
+  </si>
+  <si>
+    <t>I never write reviews unless its an awesome place but I feel like everyone should know before they waste money here.First off I was under the impression that these rooms were roomy and thats not it at all. Very small rooms. If you want a comfy bed you have a better chance at staying anywhere else. No soap or shampoo provided without a request. Then I wanted fresh towel and the front desk clerk said you have trade out your old ones so I did so and then had to wait 30 min for a phone call when they're ready and never got a phone call because my phone doesn't work. I went back to the lobby and ask for them and they were still not ready. She said she gave mine to someone else so i had to wait for more to dry. LITTLE BLACK BUGS ON MY VERY UNCOMFORTABLE BED. BED HAD BROWN STAINS ALL OVER THE MATTRESS. After i was very unsatisfied with the room, they would not refund me my second night. They serve coffee in the mornings but close it down whenever they feel like it.One last thing, Beware of one of the front desk clerk, she has a very piss poor attitude that can ruin you whole day.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Coit Road, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>I never write reviews unless its an awesome place but I feel like everyone should know before they waste money here.First off I was under the impression that these rooms were roomy and thats not it at all. Very small rooms. If you want a comfy bed you have a better chance at staying anywhere else. No soap or shampoo provided without a request. Then I wanted fresh towel and the front desk clerk said you have trade out your old ones so I did so and then had to wait 30 min for a phone call when they're ready and never got a phone call because my phone doesn't work. I went back to the lobby and ask for them and they were still not ready. She said she gave mine to someone else so i had to wait for more to dry. LITTLE BLACK BUGS ON MY VERY UNCOMFORTABLE BED. BED HAD BROWN STAINS ALL OVER THE MATTRESS. After i was very unsatisfied with the room, they would not refund me my second night. They serve coffee in the mornings but close it down whenever they feel like it.One last thing, Beware of one of the front desk clerk, she has a very piss poor attitude that can ruin you whole day.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r531449977-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
@@ -930,9 +933,6 @@
     <t>My stay was horrible very unprofessional and lazy workers the room was smelly and nasty I had to make up my own bed the bed had no sheets or anything I had to ask for esstentials that should have already been in the room. They don't clean your room nor give fresh towelsMore</t>
   </si>
   <si>
-    <t>terramadre2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r528833038-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -957,9 +957,6 @@
     <t>I was stuck here because repairs on my home cost more and took much longer than expected and it has been a nightmare. The first inconvenience was buzzing into the lobby to check in. It was 105 degrees outside and the clerk ignored my presence until I started leaning on the buzzer-then she came with major attitude. After checkin, you still cant get to the desk with our buzzing, why not make it accessible with your room key? OK, the worst part is the filthy rooms. My mattress has cigarette burns, mildew-like stains and God only know what else (see pics). I vacuumed the carpet before settling in and the carpet was so dirty I filled the canister 2x! When I cleaned the bathroom &amp; kitchen floors they were dirty and had lots of hairs of past guests. Sooooo gross! The people are mixed bag because the area is sketchy. I saw some  average Joes, but I also saw some drug addicts and a woman who was obviously a prostitute. Does she "work" here? Also, when I tried to do laundry, the washer didn't work so I had to haul everything to a laundrymat.  As a single lady, I don't feel that safe or comfortable here. I would not book here again.More</t>
   </si>
   <si>
-    <t>rosieg75</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r510794226-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -987,9 +984,6 @@
     <t>It is an excellent hotel and the hospitality of the front desk was most appreciated. We were recently moving and it helped out that we could check in for an affordable price without any hassle. We would definitely look forward to coming back if we move again and need a place for a few days.More</t>
   </si>
   <si>
-    <t>63annamarieb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r506526315-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1014,9 +1008,6 @@
     <t>Rooms too small to change your mind, no hair dryer, no kleenex, no spare roll of toilet paper, 2 towels, lights and outlets not working, terrible tv options.  Drug deals or prostitution occurring in parking lot all night as truck pulls up and beeps horn every 45 minutes for someone to go out to meet them.More</t>
   </si>
   <si>
-    <t>Keith T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r498868784-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1044,9 +1035,6 @@
     <t>Never again will I stay at an Extended Stay America. I had a reservation for a check in in Dallas on June 30th and was planning on staying a couple weeks. The room was terrible, The A/C was set to 60 and kept cutting off when it was nowhere near 60 and I was sweating standing in there. The kitchen floor was sticky and my shoes stuck to it. The bathroom was like a sauna. It was nowhere near what was described to me on the phone when booking or portrayed by the photos I seen on the web. I also did not have all of what I was promised on the phone. I travel as an adjuster and work for a company that has a corp account with them. I WILL NEVER MAKE THIS MISTAKE AGAIN. Thank goodness I was refunded my entire amount. I checked out went up the road about 7 miles and found a clean, comfortable room with all the amenities and was able to get on with my work. I have never had such horrible treatment or with  issues anywhere I have ever stayed before. It was as I if I were on another planet. Everyone on the phone kept apologizing but I was getting no action at the time it was needed. I hope you take this complaint to fix the problems in your company.More</t>
   </si>
   <si>
-    <t>Ttttttt25</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r498392042-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1071,9 +1059,6 @@
     <t>Good vibrations, good energy, good staff, friendly, caring, safe. Good coffee. Hot chocolate. Yummy breakfast. Pretty peaceful picnic views and landscapes. Professional. Quality. Would recommend to people if you would like to feel more at home while visiting. :)More</t>
   </si>
   <si>
-    <t>Gorgeous G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r498027508-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1098,9 +1083,6 @@
     <t>I appreciate the hospitality here. Everyone is friendly and quick to help me with any request. It's very quiet, comfortable and clean. I feel at home here. The location is great, as well. There are many stores and restaurants nearby. Thank you for making my stay pleasurable. More</t>
   </si>
   <si>
-    <t>tturner44</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r497161254-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1125,9 +1107,6 @@
     <t>Stayed here while in between apartments. Overall great experience. Friendly amazing staff. Breakfast. Rooms nice and fresh. Clean. Sometimes lower room floors have ants maybe one two or three here and there. But who or what is actually perfect? Recommend stay. :) More</t>
   </si>
   <si>
-    <t>626latashaw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r493387412-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1152,9 +1131,6 @@
     <t>The room is not worth the price. The toilet plumbing was very bad. The room odor was not what i was expecting. The staff at the front desk is not as polite as they should be. Waiting u will do until someone opens the door for u to check-in.More</t>
   </si>
   <si>
-    <t>390jahans</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r493165862-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1173,9 +1149,6 @@
     <t>This place is a waste of money do not stay here the night staff is especially rude. Asked for extra towels and was told she doesn't like people coming in after 11pm. That's the time I get off... I asked for some pans to cook and she slapped them on the table. This place is located across the street from a police station. Heat ready to hear sirens all night. I would not recommend this location to anyone. They have better locations to choose from. Pick any other place but here....More</t>
   </si>
   <si>
-    <t>Judy W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r492579264-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1200,9 +1173,6 @@
     <t>The beds didnt have any pillow shams and it seemed as if the queens were full sized beds. I only stayed 1 night but if longer i would've been really mad about the bed size and the pillow..  The staff was friendly and knowledgeable  about promotionsMore</t>
   </si>
   <si>
-    <t>Brian N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r487747317-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1230,9 +1200,6 @@
     <t>Great area to be in great staff and all around great stay for me the front desk is very helpful finding good restaurants and shopping areas around dallas they also are pet friendly best extended stay I've stayed at in texasMore</t>
   </si>
   <si>
-    <t>eugunevester372</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r483195641-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1255,9 +1222,6 @@
   </si>
   <si>
     <t>I have enjoyed my stay. the staff has always good to me and has always been helpfull and courteous. David Batty, Shardae Williams, David Turner have always been great. I  love this staff and they all deserve rewards in my opinionMore</t>
-  </si>
-  <si>
-    <t>JAY M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r479339590-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
@@ -1277,7 +1241,7 @@
 Rooms: 
 Very small. I feel the old Extended Stays had a different outer layout as well as room design and this one is one of them. The bathroom door was punched really hard I suppose which left its impression. The bathroom had a major issue with drains clogged for both, wash basin and bath tub. So, the water was receding very slowly. However, apart from that, bathroom had all the amenities required. We didn't use the kitchen during our stay, so can't review that. The bed was well maintained and the rest of the stuff like iron, TV etc were in good condition. 
 Staff: 
-This is where the check in nightmare started. Our flight, the earlier evening, got canceled due to a mechanical problem and we were rebooked on a next day morning flight. So we called up...We were in Dallas to attend a wedding and booked this since it was closest to the wedding location. However, very bad experience and I wished we had booked some other one (we have a very good experience with ESA Lewisville) even if it meant few more minutes of travel. To begin with, just as we entered the reception area, we couldn't help to notice that it wasn't cleaned for long. Also, there was coffee spilled over the breakfast table and the floor near the table. Overall, based on what we saw in the room as well - very low cleanliness standards. Rooms: Very small. I feel the old Extended Stays had a different outer layout as well as room design and this one is one of them. The bathroom door was punched really hard I suppose which left its impression. The bathroom had a major issue with drains clogged for both, wash basin and bath tub. So, the water was receding very slowly. However, apart from that, bathroom had all the amenities required. We didn't use the kitchen during our stay, so can't review that. The bed was well maintained and the rest of the stuff like iron, TV etc were in good condition. Staff: This is where the check in nightmare started. Our flight, the earlier evening, got canceled due to a mechanical problem and we were rebooked on a next day morning flight. So we called up that night at the reception to keep our reservation intact since we were going to check in next day noon. With verbal confirmation, I assumed we were good. However, when we reached the next day, the lady at the reception said our booking was canceled due to no-show. When I asked her about my conversation, she asked me to whom did I speak. To be honest, I didn't ask the name but still, it shouldn't matter since I got confirmation from the reception desk about my reservation being intact. However, the lady stubbornly kept insisting that since we didn't inform, our reservation was canceled and asked us to wait for 30mins since, luckily, they had a room available. In general, the staff was very rude and behaved as if they're doing a favor by accommodating us. With just one night stay, we didn't bother. However, their internal, as well as customer communication, needs significant improvement. Location: Well, we opted for this hotel because of the location. Quite good and right on the main road. Their main entrance is quite tricky since the bushes along the footpath kind of blocks the visibility of the lobby. On all occasions, the cab drivers missed the...MoreShow less</t>
+This is where the check in nightmare started. Our flight, the earlier evening, got canceled due to a mechanical problem and we were rebooked on a next day morning flight. So we called up...We were in Dallas to attend a wedding and booked this since it was closest to the wedding location. However, very bad experience and I wished we had booked some other one (we have a very good experience with ESA Lewisville) even if it meant few more minutes of travel. To begin with, just as we entered the reception area, we couldn't help to notice that it wasn't cleaned for long. Also, there was coffee spilled over the breakfast table and the floor near the table. Overall, based on what we saw in the room as well - very low cleanliness standards. Rooms: Very small. I feel the old Extended Stays had a different outer layout as well as room design and this one is one of them. The bathroom door was punched really hard I suppose which left its impression. The bathroom had a major issue with drains clogged for both, wash basin and bath tub. So, the water was receding very slowly. However, apart from that, bathroom had all the amenities required. We didn't use the kitchen during our stay, so can't review that. The bed was well maintained and the rest of the stuff like iron, TV etc were in good condition. Staff: This is where the check in nightmare started. Our flight, the earlier evening, got canceled due to a mechanical problem and we were rebooked on a next day morning flight. So we called up that night at the reception to keep our reservation intact since we were going to check in next day noon. With verbal confirmation, I assumed we were good. However, when we reached the next day, the lady at the reception said our booking was canceled due to no-show. When I asked her about my conversation, she asked me to whom did I speak. To be honest, I didn't ask the name but still, it shouldn't matter since I got confirmation from the reception desk about my reservation being intact. However, the lady stubbornly kept insisting that since we didn't inform, our reservation was canceled and asked us to wait for 30mins since, luckily, they had a room available. In general, the staff was very rude and behaved as if they're doing a favor by accommodating us. With just one night stay, we didn't bother. However, their internal, as well as customer communication, needs significant improvement. Location: Well, we opted for this hotel because of the location. Quite good and right on the main road. Their main entrance is quite tricky since the bushes along the footpath kind of blocks the visibility of the lobby. On all occasions, the cab drivers missed the entrance and had to circle back. There are a couple of restaurants and a Starbucks nearby. Overall, not a very pleasant experience. I will definitely cross out this ESA next time I'm visiting Dallas.MoreShow less</t>
   </si>
   <si>
     <t>April 2017</t>
@@ -1294,10 +1258,7 @@
 Rooms: 
 Very small. I feel the old Extended Stays had a different outer layout as well as room design and this one is one of them. The bathroom door was punched really hard I suppose which left its impression. The bathroom had a major issue with drains clogged for both, wash basin and bath tub. So, the water was receding very slowly. However, apart from that, bathroom had all the amenities required. We didn't use the kitchen during our stay, so can't review that. The bed was well maintained and the rest of the stuff like iron, TV etc were in good condition. 
 Staff: 
-This is where the check in nightmare started. Our flight, the earlier evening, got canceled due to a mechanical problem and we were rebooked on a next day morning flight. So we called up...We were in Dallas to attend a wedding and booked this since it was closest to the wedding location. However, very bad experience and I wished we had booked some other one (we have a very good experience with ESA Lewisville) even if it meant few more minutes of travel. To begin with, just as we entered the reception area, we couldn't help to notice that it wasn't cleaned for long. Also, there was coffee spilled over the breakfast table and the floor near the table. Overall, based on what we saw in the room as well - very low cleanliness standards. Rooms: Very small. I feel the old Extended Stays had a different outer layout as well as room design and this one is one of them. The bathroom door was punched really hard I suppose which left its impression. The bathroom had a major issue with drains clogged for both, wash basin and bath tub. So, the water was receding very slowly. However, apart from that, bathroom had all the amenities required. We didn't use the kitchen during our stay, so can't review that. The bed was well maintained and the rest of the stuff like iron, TV etc were in good condition. Staff: This is where the check in nightmare started. Our flight, the earlier evening, got canceled due to a mechanical problem and we were rebooked on a next day morning flight. So we called up that night at the reception to keep our reservation intact since we were going to check in next day noon. With verbal confirmation, I assumed we were good. However, when we reached the next day, the lady at the reception said our booking was canceled due to no-show. When I asked her about my conversation, she asked me to whom did I speak. To be honest, I didn't ask the name but still, it shouldn't matter since I got confirmation from the reception desk about my reservation being intact. However, the lady stubbornly kept insisting that since we didn't inform, our reservation was canceled and asked us to wait for 30mins since, luckily, they had a room available. In general, the staff was very rude and behaved as if they're doing a favor by accommodating us. With just one night stay, we didn't bother. However, their internal, as well as customer communication, needs significant improvement. Location: Well, we opted for this hotel because of the location. Quite good and right on the main road. Their main entrance is quite tricky since the bushes along the footpath kind of blocks the visibility of the lobby. On all occasions, the cab drivers missed the...More</t>
-  </si>
-  <si>
-    <t>omi o</t>
+This is where the check in nightmare started. Our flight, the earlier evening, got canceled due to a mechanical problem and we were rebooked on a next day morning flight. So we called up...We were in Dallas to attend a wedding and booked this since it was closest to the wedding location. However, very bad experience and I wished we had booked some other one (we have a very good experience with ESA Lewisville) even if it meant few more minutes of travel. To begin with, just as we entered the reception area, we couldn't help to notice that it wasn't cleaned for long. Also, there was coffee spilled over the breakfast table and the floor near the table. Overall, based on what we saw in the room as well - very low cleanliness standards. Rooms: Very small. I feel the old Extended Stays had a different outer layout as well as room design and this one is one of them. The bathroom door was punched really hard I suppose which left its impression. The bathroom had a major issue with drains clogged for both, wash basin and bath tub. So, the water was receding very slowly. However, apart from that, bathroom had all the amenities required. We didn't use the kitchen during our stay, so can't review that. The bed was well maintained and the rest of the stuff like iron, TV etc were in good condition. Staff: This is where the check in nightmare started. Our flight, the earlier evening, got canceled due to a mechanical problem and we were rebooked on a next day morning flight. So we called up that night at the reception to keep our reservation intact since we were going to check in next day noon. With verbal confirmation, I assumed we were good. However, when we reached the next day, the lady at the reception said our booking was canceled due to no-show. When I asked her about my conversation, she asked me to whom did I speak. To be honest, I didn't ask the name but still, it shouldn't matter since I got confirmation from the reception desk about my reservation being intact. However, the lady stubbornly kept insisting that since we didn't inform, our reservation was canceled and asked us to wait for 30mins since, luckily, they had a room available. In general, the staff was very rude and behaved as if they're doing a favor by accommodating us. With just one night stay, we didn't bother. However, their internal, as well as customer communication, needs significant improvement. Location: Well, we opted for this hotel because of the location. Quite good and right on the main road. Their main entrance is quite tricky since the bushes along the footpath kind of blocks the visibility of the lobby. On all occasions, the cab drivers missed the entrance and had to circle back. There are a couple of restaurants and a Starbucks nearby. Overall, not a very pleasant experience. I will definitely cross out this ESA next time I'm visiting Dallas.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r471090135-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
@@ -1327,9 +1288,6 @@
     <t>rooms are very clean they have lots of space inside like it nice view I booked on hotels.com i check before 3 pm and staff was so nice the girls are sonice and friendly they ask me for 100 deposit and thats it nothing bad to say about the services im very confortable and i will come back againMore</t>
   </si>
   <si>
-    <t>April R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r459801927-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1346,9 +1304,6 @@
   </si>
   <si>
     <t>February 2017</t>
-  </si>
-  <si>
-    <t>Monica M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r456544510-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
@@ -1368,7 +1323,7 @@
 The deluxe​ room I stayed in was average, the comfort of the bed was not so good.
 WiFI was horriable couldn't get it. 
 Men and other people were hanging around all hours of the night drinking in the parking lot. I didnt feel safe at all.
-Woke up for the breakfast on the go that they include with your stay. Only to wake up to HOT WATER AND SOME STALE OLD GRANOLA BARS!! tHE WOMEN THAT BUZZED ME INTO THE OFFICE, yea they keep the hotel lobby locked 24/7. That should have been a red flag right there keeping...Booked thru website in advance. Been an Extended stay customer since 2010.Check in time is at 3pm. My room wasn't ready until almost 4pm. The reason for not being able to check in at 3 o'clock was because they were cleaning my room. My room was dirty there was spots and water stains all on the mirror in the bathroom the floors were filthy. The bedspread in the blankets for full of hair thank God I travel with my own Linens. That room was not cleaned it looks like somebody just walk through it and maybe emptied out of trash can but it was dirty I had to clean it. Paid a refundable $100.00 deposite. Which by the way I have traveled all over the united states with a therapy dog and have ALWAYS been entitled to my deposit back.The deluxe​ room I stayed in was average, the comfort of the bed was not so good.WiFI was horriable couldn't get it. Men and other people were hanging around all hours of the night drinking in the parking lot. I didnt feel safe at all.Woke up for the breakfast on the go that they include with your stay. Only to wake up to HOT WATER AND SOME STALE OLD GRANOLA BARS!! tHE WOMEN THAT BUZZED ME INTO THE OFFICE, yea they keep the hotel lobby locked 24/7. That should have been a red flag right there keeping the hotel lobby locked 24 hours .Not very welcoming. The lady that buzz me in commented on how there hasn't been any breakfast for the guests for days and that her manger was on the way with breakfast. NEVER HAPPENEDUPON CHECK OUT AN EMPLOYEE CAME TO INSPECT MY ROOM FOR Damages. W hich I wasn't worried at all, considering I didn't do any damages. While waiting 4 the employee to inspect my room I was outside smoking a cigarette that's where we're supposed to smoke since we're not allowed to smoke inside our rooms. The employee came out of my room and said that we were waiting on the manager to come back and inspect my room like I said I wasn't worried because I hadn't done any damages to the room nor did I smoke in the room. Marissa the day manager wasn't very nice at all she was very unpleasant and unprofessional walked into the room and turned around and walked out and said you're not getting your deposit back you smoked in the room. I told her I did not smoke in the room what it happened was I was smoking outside she walked up and saw me smoking and assumed that I smoked in the room so they can keep my hundred dollars. After several minutes of insisting to this woman that I'm entitled to my hundred dollar deposit back she told me...MoreShow less</t>
+Woke up for the breakfast on the go that they include with your stay. Only to wake up to HOT WATER AND SOME STALE OLD GRANOLA BARS!! tHE WOMEN THAT BUZZED ME INTO THE OFFICE, yea they keep the hotel lobby locked 24/7. That should have been a red flag right there keeping...Booked thru website in advance. Been an Extended stay customer since 2010.Check in time is at 3pm. My room wasn't ready until almost 4pm. The reason for not being able to check in at 3 o'clock was because they were cleaning my room. My room was dirty there was spots and water stains all on the mirror in the bathroom the floors were filthy. The bedspread in the blankets for full of hair thank God I travel with my own Linens. That room was not cleaned it looks like somebody just walk through it and maybe emptied out of trash can but it was dirty I had to clean it. Paid a refundable $100.00 deposite. Which by the way I have traveled all over the united states with a therapy dog and have ALWAYS been entitled to my deposit back.The deluxe​ room I stayed in was average, the comfort of the bed was not so good.WiFI was horriable couldn't get it. Men and other people were hanging around all hours of the night drinking in the parking lot. I didnt feel safe at all.Woke up for the breakfast on the go that they include with your stay. Only to wake up to HOT WATER AND SOME STALE OLD GRANOLA BARS!! tHE WOMEN THAT BUZZED ME INTO THE OFFICE, yea they keep the hotel lobby locked 24/7. That should have been a red flag right there keeping the hotel lobby locked 24 hours .Not very welcoming. The lady that buzz me in commented on how there hasn't been any breakfast for the guests for days and that her manger was on the way with breakfast. NEVER HAPPENEDUPON CHECK OUT AN EMPLOYEE CAME TO INSPECT MY ROOM FOR Damages. W hich I wasn't worried at all, considering I didn't do any damages. While waiting 4 the employee to inspect my room I was outside smoking a cigarette that's where we're supposed to smoke since we're not allowed to smoke inside our rooms. The employee came out of my room and said that we were waiting on the manager to come back and inspect my room like I said I wasn't worried because I hadn't done any damages to the room nor did I smoke in the room. Marissa the day manager wasn't very nice at all she was very unpleasant and unprofessional walked into the room and turned around and walked out and said you're not getting your deposit back you smoked in the room. I told her I did not smoke in the room what it happened was I was smoking outside she walked up and saw me smoking and assumed that I smoked in the room so they can keep my hundred dollars. After several minutes of insisting to this woman that I'm entitled to my hundred dollar deposit back she told me know take it up with the corporate office so while she went back to the office housekeeping lady walked by and I asked recipe can you do me a favor can you go in my room does it smell like cigarettes to you the housekeeper went into the room came out of the room and said no ma'am it doesn't smell like cigarettes at all I said can you please go tell the woman at the front desk she said she would and she did and yet and still I went back up to the front desk and Marissa the manager still said no I'm not giving you back your deposit leave. After leaving the hotel I called the corporate office five times was on hold for 30 minutes to 45 minutes each call only to get the response of will call you in 24 to 48 hours will call you. I'm very disappointed I don't appreciate the way I was treated overall the only thing I can say nice about that location is the woman that checked me in her name was shardae she was nice she was pleasant and she was friendly only wish she was there when I checked out because she would have seen there was no smoking in that room that lady manager Marissa made that up. Someone from the corporate office really needs to investigate that property for there to be no breakfast or any of the guests for a week 2 weeks and for managers and employees to lie on customers so they can keep their hundred dollars it's not right needs to be investigated. My recommendation is a big no stay away.MoreShow less</t>
   </si>
   <si>
     <t>Booked thru website in advance. Been an Extended stay customer since 2010.
@@ -1376,10 +1331,7 @@
 The deluxe​ room I stayed in was average, the comfort of the bed was not so good.
 WiFI was horriable couldn't get it. 
 Men and other people were hanging around all hours of the night drinking in the parking lot. I didnt feel safe at all.
-Woke up for the breakfast on the go that they include with your stay. Only to wake up to HOT WATER AND SOME STALE OLD GRANOLA BARS!! tHE WOMEN THAT BUZZED ME INTO THE OFFICE, yea they keep the hotel lobby locked 24/7. That should have been a red flag right there keeping...Booked thru website in advance. Been an Extended stay customer since 2010.Check in time is at 3pm. My room wasn't ready until almost 4pm. The reason for not being able to check in at 3 o'clock was because they were cleaning my room. My room was dirty there was spots and water stains all on the mirror in the bathroom the floors were filthy. The bedspread in the blankets for full of hair thank God I travel with my own Linens. That room was not cleaned it looks like somebody just walk through it and maybe emptied out of trash can but it was dirty I had to clean it. Paid a refundable $100.00 deposite. Which by the way I have traveled all over the united states with a therapy dog and have ALWAYS been entitled to my deposit back.The deluxe​ room I stayed in was average, the comfort of the bed was not so good.WiFI was horriable couldn't get it. Men and other people were hanging around all hours of the night drinking in the parking lot. I didnt feel safe at all.Woke up for the breakfast on the go that they include with your stay. Only to wake up to HOT WATER AND SOME STALE OLD GRANOLA BARS!! tHE WOMEN THAT BUZZED ME INTO THE OFFICE, yea they keep the hotel lobby locked 24/7. That should have been a red flag right there keeping the hotel lobby locked 24 hours .Not very welcoming. The lady that buzz me in commented on how there hasn't been any breakfast for the guests for days and that her manger was on the way with breakfast. NEVER HAPPENEDUPON CHECK OUT AN EMPLOYEE CAME TO INSPECT MY ROOM FOR Damages. W hich I wasn't worried at all, considering I didn't do any damages. While waiting 4 the employee to inspect my room I was outside smoking a cigarette that's where we're supposed to smoke since we're not allowed to smoke inside our rooms. The employee came out of my room and said that we were waiting on the manager to come back and inspect my room like I said I wasn't worried because I hadn't done any damages to the room nor did I smoke in the room. Marissa the day manager wasn't very nice at all she was very unpleasant and unprofessional walked into the room and turned around and walked out and said you're not getting your deposit back you smoked in the room. I told her I did not smoke in the room what it happened was I was smoking outside she walked up and saw me smoking and assumed that I smoked in the room so they can keep my hundred dollars. After several minutes of insisting to this woman that I'm entitled to my hundred dollar deposit back she told me...More</t>
-  </si>
-  <si>
-    <t>Taylor F</t>
+Woke up for the breakfast on the go that they include with your stay. Only to wake up to HOT WATER AND SOME STALE OLD GRANOLA BARS!! tHE WOMEN THAT BUZZED ME INTO THE OFFICE, yea they keep the hotel lobby locked 24/7. That should have been a red flag right there keeping...Booked thru website in advance. Been an Extended stay customer since 2010.Check in time is at 3pm. My room wasn't ready until almost 4pm. The reason for not being able to check in at 3 o'clock was because they were cleaning my room. My room was dirty there was spots and water stains all on the mirror in the bathroom the floors were filthy. The bedspread in the blankets for full of hair thank God I travel with my own Linens. That room was not cleaned it looks like somebody just walk through it and maybe emptied out of trash can but it was dirty I had to clean it. Paid a refundable $100.00 deposite. Which by the way I have traveled all over the united states with a therapy dog and have ALWAYS been entitled to my deposit back.The deluxe​ room I stayed in was average, the comfort of the bed was not so good.WiFI was horriable couldn't get it. Men and other people were hanging around all hours of the night drinking in the parking lot. I didnt feel safe at all.Woke up for the breakfast on the go that they include with your stay. Only to wake up to HOT WATER AND SOME STALE OLD GRANOLA BARS!! tHE WOMEN THAT BUZZED ME INTO THE OFFICE, yea they keep the hotel lobby locked 24/7. That should have been a red flag right there keeping the hotel lobby locked 24 hours .Not very welcoming. The lady that buzz me in commented on how there hasn't been any breakfast for the guests for days and that her manger was on the way with breakfast. NEVER HAPPENEDUPON CHECK OUT AN EMPLOYEE CAME TO INSPECT MY ROOM FOR Damages. W hich I wasn't worried at all, considering I didn't do any damages. While waiting 4 the employee to inspect my room I was outside smoking a cigarette that's where we're supposed to smoke since we're not allowed to smoke inside our rooms. The employee came out of my room and said that we were waiting on the manager to come back and inspect my room like I said I wasn't worried because I hadn't done any damages to the room nor did I smoke in the room. Marissa the day manager wasn't very nice at all she was very unpleasant and unprofessional walked into the room and turned around and walked out and said you're not getting your deposit back you smoked in the room. I told her I did not smoke in the room what it happened was I was smoking outside she walked up and saw me smoking and assumed that I smoked in the room so they can keep my hundred dollars. After several minutes of insisting to this woman that I'm entitled to my hundred dollar deposit back she told me know take it up with the corporate office so while she went back to the office housekeeping lady walked by and I asked recipe can you do me a favor can you go in my room does it smell like cigarettes to you the housekeeper went into the room came out of the room and said no ma'am it doesn't smell like cigarettes at all I said can you please go tell the woman at the front desk she said she would and she did and yet and still I went back up to the front desk and Marissa the manager still said no I'm not giving you back your deposit leave. After leaving the hotel I called the corporate office five times was on hold for 30 minutes to 45 minutes each call only to get the response of will call you in 24 to 48 hours will call you. I'm very disappointed I don't appreciate the way I was treated overall the only thing I can say nice about that location is the woman that checked me in her name was shardae she was nice she was pleasant and she was friendly only wish she was there when I checked out because she would have seen there was no smoking in that room that lady manager Marissa made that up. Someone from the corporate office really needs to investigate that property for there to be no breakfast or any of the guests for a week 2 weeks and for managers and employees to lie on customers so they can keep their hundred dollars it's not right needs to be investigated. My recommendation is a big no stay away.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r453875481-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
@@ -1403,9 +1355,6 @@
     <t>NOTHING GOOD ABOUT THIS PLACE!!! I had the hardest time getting the cleaning staff to finally come clean my room for the first time after two weeks. The heater is broken, the fridge doesn't keep anything fresh (so all my food spoils), and the front burner is broken. Today, I went to make another payment for my stay (I'm part of the Extended Plus Program, so I get a really good deal), and the man at the desk tried to bump up my rate by $10 every night!! Unacceptable... I had a pre-arranged rate before coming here, and they cannot change the rate. I called Extended Stay America to complain, and now I have to wait 24 hours for them to review the problem and come up with a solution...What is there to review? My pre-arranged rate is the rate it should be! There's nothing to review. Just give me what you told me you were going to give me! So furious and pissed...More</t>
   </si>
   <si>
-    <t>netboo43</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r450852033-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1424,9 +1373,6 @@
     <t>Stay far away booked my room for January 2nd to 10th had a good stay until Sunday jan 8th and my world was turned upside down i book this hotel because i was waiting for my apartment to be finish and it was close to work and had a kitchen and frig so i can cook and still have that home like feel. So on sunday went to work when i came home my room was trashed and everything was stolen even my underwear im mean really. They took my purse check books food all my boxes to my new place jewelry all my cloths lap tops dvd players im mean everything i know it was housekeeping but of course they are definding there staff there was no force entry so they had to use a key she even took my my tampons lol i will never stay at hotel ever and i truly advise to do the same if you value your things i read the reviews and still came anyway i wish i would have listen its not the guest its the workers bewareMore</t>
   </si>
   <si>
-    <t>only1elvis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r439256467-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1448,9 +1394,6 @@
     <t>I came via a cab from the airport. I wanted to check-in but they had to go tour the property before letting me check-in. At first I thought it wasn't a big deal. Asked to use the bathroom which the black lady behind the counter told me they didn't have a public restroom. She then informed that I could walk the 1/2 mile to the corner store down the street. I made my way out and down the street. The redhead that was smoking out back of the office was also very rude and unhelpful. I hoofed it to the corner store and back. 38 minutes and now there was a group of us waiting.  I need to iron a shirt and the iron that was in the room did not work. I called to the office and was informed that they were unable to provide me with a replacement. The following morning I took it to the office and the rude redhead was unsure if they had any extra.She finally looked in one spot a produced an iron.  What kind of hotel did I choose that no one seems to care about me having a good experience?More</t>
   </si>
   <si>
-    <t>Optimistic_Otto</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r410699612-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
   </si>
   <si>
@@ -1476,9 +1419,6 @@
   </si>
   <si>
     <t>We stayed in an ADA room with a kitchenette and roll in shower.  there was a 3/4 inch gap under the door to the room and even though there was a kitchenette, there was no table to sit at to eat.  There was only one chair to sit on, and one of the two bedside stands did not have a drawer.  Residents come and go at all hours - - - with the honking of remote lock horns from automobiles and sirens several times a night from the firehouse on the other side of Coit Road from the motel, we did not get one good nights sleep during our entire stay.  Housekeeping was spotty, showing up one week and not the next and when they did show up they stripped the towels from the room and left no replacements.  The desk clerks were responsive to our needs and brought a coffee pot the first day because there was none in the room and brought towels when they were missing.  You Get What You Pay For!More</t>
-  </si>
-  <si>
-    <t>glorilugo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d217717-r403379402-Extended_Stay_America_Dallas_Coit_Road-Dallas_Texas.html</t>
@@ -2010,396 +1950,354 @@
       <c r="A2" t="n">
         <v>31354</v>
       </c>
-      <c r="B2" t="n">
-        <v>136009</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31354</v>
       </c>
-      <c r="B3" t="n">
-        <v>136010</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31354</v>
       </c>
-      <c r="B4" t="n">
-        <v>136011</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31354</v>
       </c>
-      <c r="B5" t="n">
-        <v>136012</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" t="s">
-        <v>84</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31354</v>
       </c>
-      <c r="B6" t="n">
-        <v>136013</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31354</v>
       </c>
-      <c r="B7" t="n">
-        <v>136014</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -2408,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -2421,201 +2319,207 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31354</v>
       </c>
-      <c r="B8" t="n">
-        <v>136015</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31354</v>
       </c>
-      <c r="B9" t="n">
-        <v>136016</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>123</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31354</v>
       </c>
-      <c r="B10" t="n">
-        <v>136017</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -2626,119 +2530,115 @@
         <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31354</v>
       </c>
-      <c r="B11" t="n">
-        <v>136018</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31354</v>
       </c>
-      <c r="B12" t="n">
-        <v>136019</v>
-      </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2750,60 +2650,56 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31354</v>
       </c>
-      <c r="B13" t="n">
-        <v>136020</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2815,135 +2711,117 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="X13" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31354</v>
       </c>
-      <c r="B14" t="n">
-        <v>136021</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="O14" t="s">
-        <v>123</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="X14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31354</v>
       </c>
-      <c r="B15" t="n">
-        <v>136022</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2955,60 +2833,56 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31354</v>
       </c>
-      <c r="B16" t="n">
-        <v>30472</v>
-      </c>
-      <c r="C16" t="s">
-        <v>179</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3020,194 +2894,188 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="X16" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>31354</v>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>188</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>31354</v>
       </c>
-      <c r="B18" t="n">
-        <v>136023</v>
-      </c>
-      <c r="C18" t="s">
-        <v>197</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="X18" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="Y18" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>31354</v>
       </c>
-      <c r="B19" t="n">
-        <v>136024</v>
-      </c>
-      <c r="C19" t="s">
-        <v>206</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3219,60 +3087,56 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>31354</v>
       </c>
-      <c r="B20" t="n">
-        <v>136025</v>
-      </c>
-      <c r="C20" t="s">
-        <v>215</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3284,64 +3148,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>31354</v>
       </c>
-      <c r="B21" t="n">
-        <v>136026</v>
-      </c>
-      <c r="C21" t="s">
-        <v>224</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
@@ -3353,60 +3213,56 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>31354</v>
       </c>
-      <c r="B22" t="n">
-        <v>136027</v>
-      </c>
-      <c r="C22" t="s">
-        <v>233</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3418,60 +3274,56 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>31354</v>
       </c>
-      <c r="B23" t="n">
-        <v>136028</v>
-      </c>
-      <c r="C23" t="s">
-        <v>239</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3483,125 +3335,121 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>31354</v>
       </c>
-      <c r="B24" t="n">
-        <v>136029</v>
-      </c>
-      <c r="C24" t="s">
-        <v>248</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="X24" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="Y24" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>31354</v>
       </c>
-      <c r="B25" t="n">
-        <v>7361</v>
-      </c>
-      <c r="C25" t="s">
-        <v>257</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="J25" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="O25" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3613,131 +3461,117 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="X25" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="Y25" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>31354</v>
       </c>
-      <c r="B26" t="n">
-        <v>136030</v>
-      </c>
-      <c r="C26" t="s">
-        <v>263</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="O26" t="s">
-        <v>84</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="X26" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="Y26" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>31354</v>
       </c>
-      <c r="B27" t="n">
-        <v>6881</v>
-      </c>
-      <c r="C27" t="s">
-        <v>273</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="O27" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3749,398 +3583,377 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="X27" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="Y27" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>31354</v>
       </c>
-      <c r="B28" t="n">
-        <v>136031</v>
-      </c>
-      <c r="C28" t="s">
-        <v>282</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>278</v>
+        <v>180</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="X28" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="Y28" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31354</v>
       </c>
-      <c r="B29" t="n">
-        <v>136032</v>
-      </c>
-      <c r="C29" t="s">
-        <v>291</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>294</v>
-      </c>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
-      <c r="M29" t="s"/>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="s"/>
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>269</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>270</v>
+      </c>
+      <c r="X29" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>31354</v>
       </c>
-      <c r="B30" t="n">
-        <v>136033</v>
-      </c>
-      <c r="C30" t="s">
-        <v>295</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="J30" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="K30" t="s">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="L30" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s">
-        <v>123</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="X30" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="Y30" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>31354</v>
       </c>
-      <c r="B31" t="n">
-        <v>136034</v>
-      </c>
-      <c r="C31" t="s">
-        <v>304</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="X31" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="Y31" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>31354</v>
       </c>
-      <c r="B32" t="n">
-        <v>136035</v>
-      </c>
-      <c r="C32" t="s">
-        <v>313</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="J32" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="K32" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="X32" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>31354</v>
       </c>
-      <c r="B33" t="n">
-        <v>136036</v>
-      </c>
-      <c r="C33" t="s">
-        <v>323</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="J33" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="O33" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4152,77 +3965,73 @@
         <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="X33" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="Y33" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>31354</v>
       </c>
-      <c r="B34" t="n">
-        <v>35990</v>
-      </c>
-      <c r="C34" t="s">
-        <v>332</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
         <v>46</v>
       </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
       <c r="I34" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="J34" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="O34" t="s">
-        <v>104</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
@@ -4233,60 +4042,56 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="X34" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="Y34" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>31354</v>
       </c>
-      <c r="B35" t="n">
-        <v>136037</v>
-      </c>
-      <c r="C35" t="s">
-        <v>342</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
         <v>46</v>
       </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
       <c r="I35" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="J35" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="K35" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="L35" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4308,372 +4113,348 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>31354</v>
       </c>
-      <c r="B36" t="n">
-        <v>136038</v>
-      </c>
-      <c r="C36" t="s">
-        <v>351</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>46</v>
       </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
       <c r="I36" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="J36" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="K36" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
         <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="X36" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>31354</v>
       </c>
-      <c r="B37" t="n">
-        <v>136039</v>
-      </c>
-      <c r="C37" t="s">
-        <v>360</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
       <c r="I37" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="J37" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="K37" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="X37" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="Y37" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>31354</v>
       </c>
-      <c r="B38" t="n">
-        <v>136040</v>
-      </c>
-      <c r="C38" t="s">
-        <v>369</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="J38" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O38" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="X38" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="Y38" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>31354</v>
       </c>
-      <c r="B39" t="n">
-        <v>136041</v>
-      </c>
-      <c r="C39" t="s">
-        <v>378</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
       <c r="I39" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="J39" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="O39" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="X39" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="Y39" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>31354</v>
       </c>
-      <c r="B40" t="n">
-        <v>16829</v>
-      </c>
-      <c r="C40" t="s">
-        <v>385</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
         <v>46</v>
       </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
       <c r="I40" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="J40" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="K40" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -4683,523 +4464,529 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="X40" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="Y40" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>31354</v>
       </c>
-      <c r="B41" t="n">
-        <v>136042</v>
-      </c>
-      <c r="C41" t="s">
-        <v>394</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
         <v>46</v>
       </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
       <c r="I41" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="J41" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="X41" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="Y41" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>31354</v>
       </c>
-      <c r="B42" t="n">
-        <v>136043</v>
-      </c>
-      <c r="C42" t="s">
-        <v>404</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
         <v>46</v>
       </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
       <c r="I42" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="J42" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
       <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="X42" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="Y42" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>31354</v>
       </c>
-      <c r="B43" t="n">
-        <v>136044</v>
-      </c>
-      <c r="C43" t="s">
-        <v>413</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
         <v>46</v>
       </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
       <c r="I43" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="J43" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="L43" t="s">
-        <v>418</v>
+        <v>381</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>419</v>
+        <v>335</v>
       </c>
       <c r="O43" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
       <c r="R43" t="n">
         <v>3</v>
       </c>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="X43" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="Y43" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>31354</v>
       </c>
-      <c r="B44" t="n">
-        <v>136045</v>
-      </c>
-      <c r="C44" t="s">
-        <v>423</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
       <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
         <v>46</v>
       </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
       <c r="I44" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="J44" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
       <c r="K44" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P44" t="s"/>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="X44" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="Y44" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>31354</v>
       </c>
-      <c r="B45" t="n">
-        <v>136046</v>
-      </c>
-      <c r="C45" t="s">
-        <v>433</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
         <v>46</v>
       </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
       <c r="I45" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="O45" t="s">
-        <v>104</v>
-      </c>
-      <c r="P45" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
       <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>399</v>
+      </c>
+      <c r="X45" t="s">
+        <v>400</v>
+      </c>
       <c r="Y45" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>31354</v>
       </c>
-      <c r="B46" t="n">
-        <v>15596</v>
-      </c>
-      <c r="C46" t="s">
-        <v>440</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
       <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
         <v>46</v>
       </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
       <c r="I46" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="J46" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="K46" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
       <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>408</v>
+      </c>
+      <c r="X46" t="s">
+        <v>409</v>
+      </c>
       <c r="Y46" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>31354</v>
       </c>
-      <c r="B47" t="n">
-        <v>104999</v>
-      </c>
-      <c r="C47" t="s">
-        <v>447</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
         <v>46</v>
       </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
       <c r="I47" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="J47" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="K47" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="L47" t="s">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>417</v>
+      </c>
+      <c r="X47" t="s">
+        <v>418</v>
+      </c>
       <c r="Y47" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>31354</v>
       </c>
-      <c r="B48" t="n">
-        <v>136047</v>
-      </c>
-      <c r="C48" t="s">
-        <v>455</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
         <v>46</v>
       </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
       <c r="I48" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="J48" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="K48" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="L48" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="O48" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5213,54 +5000,50 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>31354</v>
       </c>
-      <c r="B49" t="n">
-        <v>136048</v>
-      </c>
-      <c r="C49" t="s">
-        <v>462</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
         <v>46</v>
       </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
       <c r="I49" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="J49" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="K49" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="L49" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5274,145 +5057,312 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>31354</v>
       </c>
-      <c r="B50" t="n">
-        <v>136049</v>
-      </c>
-      <c r="C50" t="s">
-        <v>470</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
         <v>46</v>
       </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
       <c r="I50" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
       <c r="J50" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="K50" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="L50" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>437</v>
+      </c>
+      <c r="O50" t="s">
+        <v>87</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
         <v>3</v>
       </c>
-      <c r="N50" t="s">
-        <v>476</v>
-      </c>
-      <c r="O50" t="s">
-        <v>84</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>477</v>
-      </c>
-      <c r="X50" t="s">
-        <v>478</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>31354</v>
       </c>
-      <c r="B51" t="n">
-        <v>136050</v>
-      </c>
-      <c r="C51" t="s">
-        <v>480</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
         <v>46</v>
       </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
       <c r="I51" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="J51" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="K51" t="s">
-        <v>484</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
+      <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>2</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>487</v>
-      </c>
-      <c r="X51" t="s">
-        <v>488</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>489</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31354</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>445</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>446</v>
+      </c>
+      <c r="J52" t="s">
+        <v>447</v>
+      </c>
+      <c r="K52" t="s">
+        <v>448</v>
+      </c>
+      <c r="L52" t="s">
+        <v>449</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>450</v>
+      </c>
+      <c r="O52" t="s">
+        <v>87</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31354</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>452</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>453</v>
+      </c>
+      <c r="J53" t="s">
+        <v>454</v>
+      </c>
+      <c r="K53" t="s">
+        <v>455</v>
+      </c>
+      <c r="L53" t="s">
+        <v>456</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>457</v>
+      </c>
+      <c r="O53" t="s">
+        <v>106</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>458</v>
+      </c>
+      <c r="X53" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31354</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>461</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>462</v>
+      </c>
+      <c r="J54" t="s">
+        <v>463</v>
+      </c>
+      <c r="K54" t="s">
+        <v>464</v>
+      </c>
+      <c r="L54" t="s">
+        <v>465</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>466</v>
+      </c>
+      <c r="O54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>467</v>
+      </c>
+      <c r="X54" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
